--- a/tbl/tbl_bayesphases_comparison.xlsx
+++ b/tbl/tbl_bayesphases_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3beaa5512f8c8b6/Desktop/Pikunda-Munda ^0 Batalimo-Maluba/PikundaMunda_BatalimoMaluba_AAR/tbl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3beaa5512f8c8b6/Projekte/_Eingereicht/Pikunda-Munda ^0 Batalimo-Maluba/PikundaMunda_BatalimoMaluba_AAR/tbl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{DBE83C50-3B24-4FE7-865F-561E7D3BA263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FD1F15C-D781-4D13-997F-740C5E87C048}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{DBE83C50-3B24-4FE7-865F-561E7D3BA263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926C2038-1FBD-49AD-9533-DA237A12D6BA}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="4260" windowWidth="16050" windowHeight="13095" xr2:uid="{F8FFB11B-987B-4545-97AA-7CFBBD11A390}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{F8FFB11B-987B-4545-97AA-7CFBBD11A390}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -98,13 +98,13 @@
     <t>Bayesian</t>
   </si>
   <si>
-    <t>Convetional</t>
-  </si>
-  <si>
     <t>Start cal BCE/CE</t>
   </si>
   <si>
     <t>End cal BCE/CE</t>
+  </si>
+  <si>
+    <t>Conventional</t>
   </si>
 </sst>
 </file>
@@ -165,15 +165,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -181,6 +172,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -196,10 +194,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,347 +496,347 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="5" width="11.7109375" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>-400</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>-367</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>-100</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>-99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>-100</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>-243</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>200</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>-200</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>-214</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>-400</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>-203</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>-200</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>-139</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>600</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>700</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>-80</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>1600</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>1717</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>-200</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>-47</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>500</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>50</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>-9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>450</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>199</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>200</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>200</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>289</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>700</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>200</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>298</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>550</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>1000</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>1142</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>1400</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>1338</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>1000</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>1174</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>1400</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>1403</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>1200</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>1337</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>1400</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>1497</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>1300</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>1354</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>1600</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="1">
         <v>1442</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <v>1450</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>1423</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <v>1800</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <v>1519</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>1500</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>1491</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>1987</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="1">
         <v>1786</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <v>1700</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>1647</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>1920</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <v>1875</v>
       </c>
     </row>
